--- a/biology/Zoologie/Coregoninae/Coregoninae.xlsx
+++ b/biology/Zoologie/Coregoninae/Coregoninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coregoninae sont une sous-famille de poissons de la famille des salmonidés.
 Il existe 44 espèces de corégones, réparties en 4 genres, dont certaines sont autochtones aux Alpes européennes (Coregonus albula, C. laveratus, C. fera et C. palea) et une introduite (C. peled). Leur origine remonte au Miocène, leur répartition s'est faite au début du Quaternaire, et leur diversité est une conséquence de l'isolement des populations au moment de la dernière grande glaciation.
@@ -513,7 +525,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coregonus Linnaeus, 1758
 Prosopium Jordan, 1878
@@ -545,7 +559,9 @@
           <t>Quelques espèces courantes de corégone</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>le blonduelle (Coregonus oxrhynchus)
 le corégone sibérien (Coregonus peled)
